--- a/Banco Central/5/8/2/Spot 2021 - Diaria.xlsx
+++ b/Banco Central/5/8/2/Spot 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Serie</t>
   </si>
@@ -449,6 +449,21 @@
   </si>
   <si>
     <t>23-07-2021</t>
+  </si>
+  <si>
+    <t>26-07-2021</t>
+  </si>
+  <si>
+    <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
   </si>
 </sst>
 </file>
@@ -806,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2747,6 +2762,70 @@
         <v>2.97</v>
       </c>
     </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142">
+        <v>2.92</v>
+      </c>
+      <c r="D142">
+        <v>2.98</v>
+      </c>
+      <c r="E142">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143">
+        <v>2.82</v>
+      </c>
+      <c r="E143">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144">
+        <v>2.78</v>
+      </c>
+      <c r="E144">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145">
+        <v>2.98</v>
+      </c>
+      <c r="D145">
+        <v>2.86</v>
+      </c>
+      <c r="E145">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="C146">
+        <v>2.98</v>
+      </c>
+      <c r="D146">
+        <v>2.93</v>
+      </c>
+      <c r="E146">
+        <v>2.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
